--- a/DOM_Banner/output/dept_banner/Aparna Nallagangula_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Aparna Nallagangula_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,722 +360,328 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Samuel A. Kareff, Aliya Khan, Priscila Barreto-Coelho, Sunil Iyer, Brian A. Pico, Michele Stanchina, Giselle Dutcher, José Monteiro de Oliveira Novaes, Aparna Nallagangula, Gilberto Lopes</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297152055</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Prevalence and Outcomes of COVID-19 among Hematology/Oncology Patients and Providers of a Community-Facing Health System during the B1.1.529 (“Omicron”) SARS-CoV-2 Variant Wave</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5011092600", "https://openalex.org/A5063080270", "https://openalex.org/A5083669154", "https://openalex.org/A5080509439", "https://openalex.org/A5022258460", "https://openalex.org/A5050531831", "https://openalex.org/A5043039489", "https://openalex.org/A5086057670", "https://openalex.org/A5083256772", "https://openalex.org/A5068401391"), au_display_name = c("Samuel A. Kareff", "Aliya Khan", "Priscila Barreto-Coelho", "Sunil Iyer", "Brian A. Pico", "Michele Stanchina", 
-"Giselle Dutcher", "José Monteiro de Oliveira Novaes", "Aparna Nallagangula", "Gilberto Lopes"), au_orcid = c("https://orcid.org/0000-0001-7431-1221", "https://orcid.org/0000-0003-3733-8956", "https://orcid.org/0000-0002-9236-6071", "https://orcid.org/0000-0002-2507-9347", NA, "https://orcid.org/0000-0002-4691-7645", NA, NA, "https://orcid.org/0000-0002-3081-5054", "https://orcid.org/0000-0002-1151-9903"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
-"middle", "last"), au_affiliation_raw = c("University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL 33136, USA", "Broward Health North, Pompano Beach, FL 33064, USA", "University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL 33136, USA", "University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL 33136, USA", "Memorial Cancer Institute, Pembroke Pines, FL 33028, USA", "University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL 33136, USA", 
-"Department of Medicine, Division of Solid Tumor Oncology, University Hospitals Seidman Cancer Center, Case Western Reserve University, Cleveland, OH 44106, USA", "University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL 33136, USA", "College of Medicine, The University of Arizona, Tucson, AZ 85721, USA", "School of Medicine, University of Miami, Miller Miami, FL 33136, USA"), institution_id = c("https://openalex.org/I4210157065", "https://openalex.org/I4210161735", 
-"https://openalex.org/I4210157065", "https://openalex.org/I4210157065", "https://openalex.org/I4210098576", "https://openalex.org/I4210157065", "https://openalex.org/I4210119077", "https://openalex.org/I4210157065", "https://openalex.org/I138006243", "https://openalex.org/I145608581"), institution_display_name = c("Sylvester Comprehensive Cancer Center", "Broward Health", "Sylvester Comprehensive Cancer Center", "Sylvester Comprehensive Cancer Center", "Memorial Healthcare System", "Sylvester Comprehensive Cancer Center", 
-"University Hospitals Seidman Cancer Center", "Sylvester Comprehensive Cancer Center", "University of Arizona", "University of Miami"), institution_ror = c("https://ror.org/0552r4b12", "https://ror.org/05acrxx45", "https://ror.org/0552r4b12", "https://ror.org/0552r4b12", "https://ror.org/016d4cn96", "https://ror.org/0552r4b12", "https://ror.org/02kb97560", "https://ror.org/0552r4b12", "https://ror.org/03m2x1q45", "https://ror.org/02dgjyy92"), institution_country_code = c("US", "US", "US", "US", "US", 
-"US", "US", "US", "US", "US"), institution_type = c("healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "education", "education"), institution_lineage = c("https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210161735", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210098576", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", 
-"https://openalex.org/I2799343972, https://openalex.org/I4210119077", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I145608581"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(1) Background: the SARS-CoV-2 (COVID-19) pandemic continues, and patients actively receiving chemotherapy are known to be at enhanced risk for developing symptomatic disease with poorer outcomes. Our study evaluated the prevalence of COVID-19 among patients and providers of our community-facing county health system during the B1.1.529 ("Omicron") COVID-19 variant wave. (2) Methods: We retrospectively analyzed patients that received care and clinical providers whom worked at the Jackson Memorial Hospital Hematology/Oncology clinic in Miami, Florida, USA, from 1 December 2021 through 30 April 2022. We assessed demographic variables and quality outcomes among patients. (3) Results: 1031 patients and 18 providers were retrospectively analyzed. 90 patients tested positive for COVID-19 (8.73%), while 6 providers tested positive (33.3%) (p = 0.038). There were 4 (10.3%) COVID-19-related deaths (and another outside our study timeframe) and 39 non-COVID-19-related deaths (89.7%) in the patient population (p = 0.77). COVID-19 accounted for 4.44% of our clinic's total mortality, and delayed care in 64.4% of patients. (4) Conclusions: The prevalence of COVID-19 positivity in our patient cohort mirrored local, state, and national trends, however a statistically significant greater proportion of our providers tested positive. Almost two-thirds of patients experienced a cancer treatment delay, significantly impacting oncologic care.</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>Cancers</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cancers</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S168415115</t>
+          <t>https://doi.org/10.3390/cancers14194629</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2072-6694</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36230552</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.3390/cancers14194629</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/2072-6694/14/19/4629/pdf?version=1664258111</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.mdpi.com/2072-6694/14/19/4629/pdf?version=1664258111</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4297152055</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4297152055", doi = "https://doi.org/10.3390/cancers14194629", pmid = "https://pubmed.ncbi.nlm.nih.gov/36230552")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/cancers14194629</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3025323637", "https://openalex.org/W3027525125", "https://openalex.org/W3030573714", "https://openalex.org/W3033163537", "https://openalex.org/W3037012925", "https://openalex.org/W3038138492", "https://openalex.org/W3104443624", "https://openalex.org/W3118760668", "https://openalex.org/W3133799971", "https://openalex.org/W3135219309", "https://openalex.org/W3156784836", "https://openalex.org/W3167416022", "https://openalex.org/W3168575533", "https://openalex.org/W3196633455", 
-"https://openalex.org/W3201642119", "https://openalex.org/W4205087688", "https://openalex.org/W4210272353", "https://openalex.org/W4210852626", "https://openalex.org/W4223423566", "https://openalex.org/W4224018011", "https://openalex.org/W4229046601", "https://openalex.org/W4281648196", "https://openalex.org/W4282558826", "https://openalex.org/W4283515553", "https://openalex.org/W4283832164", "https://openalex.org/W4288446797", "https://openalex.org/W4292104160")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3119540162", "https://openalex.org/W4206669628", "https://openalex.org/W4205317059", "https://openalex.org/W3081785542", "https://openalex.org/W3176864053", "https://openalex.org/W3198183218", "https://openalex.org/W4205810683", "https://openalex.org/W4224279380", "https://openalex.org/W4206548596", "https://openalex.org/W4206651655")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Gino K In, Aparna Nallagangula, Jacob Choi, Lisa May Ling Tachiki, Matthew Blackburn, Stephen Capone, Kathryn Bollin, Daniel Y. Reuben, Keisuke Shirai, Sandy Zhang-Nunes, Omar Ragab, Alicia M. Terando, Jenny Hu, Han Lee, Shailender Bhatia, Sunandana Chandra, Jose Lutzky, Geoffrey T. Gibney</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280493379</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Clinical activity of PD-1 inhibition in the treatment of locally advanced or metastatic basal cell carcinoma</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5001155783", "https://openalex.org/A5057591852", "https://openalex.org/A5013046699", "https://openalex.org/A5017296124", "https://openalex.org/A5007225202", "https://openalex.org/A5061037221", "https://openalex.org/A5057459468", "https://openalex.org/A5063474935", "https://openalex.org/A5044045808", "https://openalex.org/A5076099967", "https://openalex.org/A5059210491", "https://openalex.org/A5004649846", "https://openalex.org/A5079826077", "https://openalex.org/A5014633686", 
-"https://openalex.org/A5034786338", "https://openalex.org/A5035539932", "https://openalex.org/A5044615683", "https://openalex.org/A5026672076"), au_display_name = c("Gino K In", "Aparna Nallagangula", "Jacob Choi", "Lisa May Ling Tachiki", "Matthew Blackburn", "Stephen Capone", "Kathryn Bollin", "Daniel Y. Reuben", "Keisuke Shirai", "Sandy Zhang-Nunes", "Omar Ragab", "Alicia M. Terando", "Jenny Hu", "Han Lee", "Shailender Bhatia", "Sunandana Chandra", "Jose Lutzky", "Geoffrey T. Gibney"), au_orcid = c("https://orcid.org/0000-0002-7060-5123", 
-NA, "https://orcid.org/0000-0002-5496-6033", "https://orcid.org/0000-0001-8057-8029", NA, "https://orcid.org/0000-0001-7231-1535", "https://orcid.org/0000-0001-7343-8925", NA, NA, "https://orcid.org/0000-0001-5435-3424", "https://orcid.org/0000-0002-4642-2407", NA, NA, "https://orcid.org/0000-0002-1381-1254", "https://orcid.org/0000-0002-3816-2238", "https://orcid.org/0000-0001-7936-5069", "https://orcid.org/0000-0002-9503-2130", "https://orcid.org/0000-0002-5401-8498"), author_position = c("first", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Oncology, University of Southern California, Norris Comprehensive Cancer Center, Los Angeles, California, USA gino.in@med.usc.edu.", "Division of Medical Oncology, University of Miami, Sylvester Comprehensive Cancer Center, Miami, Florida, USA", "Division of Hematology and Oncology, Northwestern University, Robert H Lurie Comprehensive Cancer Center, Chicago, Illinois, USA", 
-"Division of Oncology, University of Washington, Fred Hutchinson Cancer Research Center, Seattle, Washington, USA", "Division of Hematology and Oncology, Georgetown University, Georgetown Lombardi Comprehensive Cancer Center, Washington, District of Columbia, USA", "Department of Neurosurgery, The University of Texas MD Anderson Cancer Center, Houston, Texas, USA", "Division of Hematology/Oncology, Scripps Clinic, Scripps MD Anderson Cancer Center, San Diego, California, USA", "Division of Hematology &amp; Oncology, Medical University of South Carolina, Hollings Cancer Center, Charleston, South Carolina, USA", 
-"Section of Hematology/Oncology, Dartmouth University, Norris Cotton Cancer Center, Lebanon, New Hampshire, USA", "Department of Ophthalmology, University of Southern California, Keck School of Medicine, Los Angeles, California, USA", "Department of Radiation Oncology, University of Southern California, Norris Comprehensive Cancer Center, Los Angeles, California, USA", "Section of Surgical Oncology, University of Southern California, Keck School of Medicine, Los Angeles, California, USA", "Department of Dermatology, University of Southern California, Keck School of Medicine, Los Angeles, California, USA", 
-"Department of Dermatology, University of Southern California, Keck School of Medicine, Los Angeles, California, USA", "Division of Oncology, University of Washington, Fred Hutchinson Cancer Research Center, Seattle, Washington, USA", "Division of Hematology and Oncology, Northwestern University, Robert H Lurie Comprehensive Cancer Center, Chicago, Illinois, USA", "Division of Medical Oncology, University of Miami, Sylvester Comprehensive Cancer Center, Miami, Florida, USA", "Division of Hematology and Oncology, Georgetown University, Georgetown Lombardi Comprehensive Cancer Center, Washington, District of Columbia, USA"
-), institution_id = c("https://openalex.org/I1174212", "https://openalex.org/I4210157065", "https://openalex.org/I111979921", "https://openalex.org/I4210089486", "https://openalex.org/I184565670", "https://openalex.org/I1343551460", "https://openalex.org/I4210146979", "https://openalex.org/I4210095449", "https://openalex.org/I107672454", "https://openalex.org/I1174212", "https://openalex.org/I1174212", "https://openalex.org/I1174212", "https://openalex.org/I1174212", "https://openalex.org/I1174212", 
-"https://openalex.org/I4210089486", "https://openalex.org/I111979921", "https://openalex.org/I4210157065", "https://openalex.org/I184565670"), institution_display_name = c("University of Southern California", "Sylvester Comprehensive Cancer Center", "Northwestern University", "Fred Hutch Cancer Center", "Georgetown University", "The University of Texas MD Anderson Cancer Center", "Scripps MD Anderson Cancer Center", "MUSC Hollings Cancer Center", "Dartmouth College", "University of Southern California", 
-"University of Southern California", "University of Southern California", "University of Southern California", "University of Southern California", "Fred Hutch Cancer Center", "Northwestern University", "Sylvester Comprehensive Cancer Center", "Georgetown University"), institution_ror = c("https://ror.org/03taz7m60", "https://ror.org/0552r4b12", "https://ror.org/000e0be47", "https://ror.org/007ps6h72", "https://ror.org/05vzafd60", "https://ror.org/04twxam07", "https://ror.org/0509zzg37", "https://ror.org/00w52vt71", 
-"https://ror.org/049s0rh22", "https://ror.org/03taz7m60", "https://ror.org/03taz7m60", "https://ror.org/03taz7m60", "https://ror.org/03taz7m60", "https://ror.org/03taz7m60", "https://ror.org/007ps6h72", "https://ror.org/000e0be47", "https://ror.org/0552r4b12", "https://ror.org/05vzafd60"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "healthcare", "education", "nonprofit", 
-"education", "healthcare", "healthcare", "healthcare", "education", "education", "education", "education", "education", "education", "nonprofit", "education", "healthcare", "education"), institution_lineage = c("https://openalex.org/I1174212", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I111979921", "https://openalex.org/I4210089486", "https://openalex.org/I184565670", "https://openalex.org/I1343551460, https://openalex.org/I16452829", "https://openalex.org/I1311914864, https://openalex.org/I4210146979", 
-"https://openalex.org/I4210095449", "https://openalex.org/I107672454", "https://openalex.org/I1174212", "https://openalex.org/I1174212", "https://openalex.org/I1174212", "https://openalex.org/I1174212", "https://openalex.org/I1174212", "https://openalex.org/I4210089486", "https://openalex.org/I111979921", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I184565670"))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Background Basal cell carcinoma (BCC) is the most common malignancy worldwide, yet the management of patients with advanced or metastatic disease is challenging, with limited treatment options. Recently, programmed death receptor 1 (PD-1) inhibition has demonstrated activity in BCC after prior Hedgehog inhibitor treatment. Methods We conducted a multicenter, retrospective analysis of BCC patients treated with PD-1 inhibitor therapy. We examined the efficacy and safety of PD-1 therapy, as well as clinical and pathological variables in association with outcomes. Progression-free survival (PFS), overall survival (OS) and duration of response (DOR) were calculated using Kaplan-Meier methodology. Toxicity was graded per Common Terminology Criteria for Adverse Events V.5.0. Results A total of 29 patients with BCC who were treated with PD-1 inhibition were included for analysis, including 20 (69.0%) with locally advanced and 9 (31.0%) with metastatic disease. The objective response rate was 31.0%, with five partial responses (17.2%), and four complete responses (13.8%). Nine patients had stable disease (31.0%), with a disease control rate of 62.1%. The median DOR was not reached. Median PFS was 12.2 months (95% CI 0.0 to 27.4). Median OS was 32.4 months (95% CI 18.1 to 46.7). Two patients (6.9%) developed grade 3 or higher toxicity, while four patients (13.8%) discontinued PD-1 inhibition because of toxicity. Higher platelets (p=0.022) and any grade toxicity (p=0.024) were significantly associated with disease control rate. Conclusions The clinical efficacy of PD-1 inhibition among patients with advanced or metastatic BCC in this real-world cohort were comparable to published trial data. Further investigation of PD-1 inhibition is needed to define its optimal role for patients with this disease.</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>Journal for ImmunoTherapy of Cancer</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Journal for ImmunoTherapy of Cancer</t>
+          <t>BMJ</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2754803477</t>
+          <t>https://doi.org/10.1136/jitc-2022-004839</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BMJ</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2051-1426</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35545318</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1136/jitc-2022-004839</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://jitc.bmj.com/content/jitc/10/5/e004839.full.pdf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>cc-by-nc</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>e004839</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>e004839</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://jitc.bmj.com/content/jitc/10/5/e004839.full.pdf</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4280493379</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4280493379", doi = "https://doi.org/10.1136/jitc-2022-004839", pmid = "https://pubmed.ncbi.nlm.nih.gov/35545318")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1136/jitc-2022-004839</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1557897376", "https://openalex.org/W1926140754", "https://openalex.org/W1970915933", "https://openalex.org/W1973774951", "https://openalex.org/W1995143994", "https://openalex.org/W1996800159", "https://openalex.org/W2002185973", "https://openalex.org/W2009147696", "https://openalex.org/W2011342967", "https://openalex.org/W2028192144", "https://openalex.org/W2033174520", "https://openalex.org/W2040600853", "https://openalex.org/W2056851027", "https://openalex.org/W2064928307", 
-"https://openalex.org/W2087020583", "https://openalex.org/W2091113670", "https://openalex.org/W2097641710", "https://openalex.org/W2110135410", "https://openalex.org/W2112121482", "https://openalex.org/W2122406360", "https://openalex.org/W2128035403", "https://openalex.org/W2137271428", "https://openalex.org/W2139396899", "https://openalex.org/W2141183705", "https://openalex.org/W2152897456", "https://openalex.org/W2161540365", "https://openalex.org/W2167106546", "https://openalex.org/W2290862131", 
-"https://openalex.org/W2293178613", "https://openalex.org/W2334577496", "https://openalex.org/W2339890238", "https://openalex.org/W2510686645", "https://openalex.org/W2560367415", "https://openalex.org/W2572174216", "https://openalex.org/W2587429794", "https://openalex.org/W2594507808", "https://openalex.org/W2747660904", "https://openalex.org/W2767119969", "https://openalex.org/W2779503684", "https://openalex.org/W2805968856", "https://openalex.org/W2888104081", "https://openalex.org/W2891965082", 
-"https://openalex.org/W2958388343", "https://openalex.org/W2963476376", "https://openalex.org/W3010228464", "https://openalex.org/W3043022164", "https://openalex.org/W3043252982", "https://openalex.org/W3104819140", "https://openalex.org/W3155044719", "https://openalex.org/W3159164282", "https://openalex.org/W3160231856", "https://openalex.org/W3161927142", "https://openalex.org/W3193495508", "https://openalex.org/W3206586284", "https://openalex.org/W3209623215", "https://openalex.org/W4235732203", 
-"https://openalex.org/W4237354326", "https://openalex.org/W4323284054")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2971476881", "https://openalex.org/W2081371466", "https://openalex.org/W2047967234", "https://openalex.org/W2439875401", "https://openalex.org/W2003938723", "https://openalex.org/W2118496982", "https://openalex.org/W2525756941", "https://openalex.org/W4238867864", "https://openalex.org/W2397703782", "https://openalex.org/W2314142019")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Leonel F. Hernandez‐Aya, Estelamari Rodriguez, Aparna Nallagangula, Jun Yin, Phillip Walker, Joanne Xiu, Justin Moser, Gino K In, David Spetzler, Geoffery T. Gibney, Matthew James Oberley, Thuy L. Phung, Michael B. Atkins, Dave S. B. Hoon, W. Michael Korn, Jose Lutzky, Gilberto Lopes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282982803</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Abstract 5625: Molecular and immunologic characterization of &lt;i&gt;HRAS&lt;/i&gt; mutations in a cohort of 6,329 patients with cutaneous melanoma</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5089182718", "https://openalex.org/A5020695450", "https://openalex.org/A5057591852", "https://openalex.org/A5080351759", "https://openalex.org/A5061883893", "https://openalex.org/A5080544645", "https://openalex.org/A5082674870", "https://openalex.org/A5001155783", "https://openalex.org/A5082951042", "https://openalex.org/A5002942832", "https://openalex.org/A5053487571", "https://openalex.org/A5032111295", "https://openalex.org/A5052526230", "https://openalex.org/A5078330179", 
-"https://openalex.org/A5040325455", "https://openalex.org/A5037624715", "https://openalex.org/A5068401391"), au_display_name = c("Leonel F. Hernandez‐Aya", "Estelamari Rodriguez", "Aparna Nallagangula", "Jun Yin", "Phillip Walker", "Joanne Xiu", "Justin Moser", "Gino K In", "David Spetzler", "Geoffery T. Gibney", "Matthew James Oberley", "Thuy L. Phung", "Michael B. Atkins", "Dave S. B. Hoon", "W. Michael Korn", "Jose Lutzky", "Gilberto Lopes"), au_orcid = c("https://orcid.org/0000-0002-0684-8120", 
-"https://orcid.org/0000-0001-8132-4573", NA, "https://orcid.org/0000-0002-9826-3583", "https://orcid.org/0009-0009-5324-6219", "https://orcid.org/0000-0001-8744-5827", "https://orcid.org/0000-0002-0643-6759", "https://orcid.org/0000-0002-7060-5123", "https://orcid.org/0000-0002-9531-0970", NA, NA, NA, "https://orcid.org/0000-0003-3901-9924", NA, "https://orcid.org/0000-0002-0124-6841", NA, "https://orcid.org/0000-0002-1151-9903"), author_position = c("first", "middle", "middle", "middle", "middle", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("1University of Miami Miller School of Medicine, Miami, FL;", "2Sylvester Comprehensive Cancer Center at the University of Miami, Miami, FL;", "2Sylvester Comprehensive Cancer Center at the University of Miami, Miami, FL;", "3Caris Life Sciences, Tempe, AZ;", "3Caris Life Sciences, Tempe, AZ;", "3Caris Life Sciences, Tempe, AZ;", "4HonorHealth Research Institute, Scottsdale, AZ;", 
-"5USC Keck School of Medicine, USC Norris Comprehensive Cancer Center, Los Angeles, CA;", "3Caris Life Sciences, Tempe, AZ;", "6Medstar/Georgetown University Medical Center, Washington, DC;", "7Caris Life Sciences, Phoenix, AZ;", "8University of South Alabama, Mobile, AL;", "6Medstar/Georgetown University Medical Center, Washington, DC;", "9Saint John’s Cancer Institute, Santa Monica, CA.", "3Caris Life Sciences, Tempe, AZ;", "1University of Miami Miller School of Medicine, Miami, FL;", "2Sylvester Comprehensive Cancer Center at the University of Miami, Miami, FL;"
-), institution_id = c("https://openalex.org/I145608581", "https://openalex.org/I4210157065", "https://openalex.org/I4210157065", "https://openalex.org/I4210140103", "https://openalex.org/I4210140103", "https://openalex.org/I4210140103", "https://openalex.org/I4210130412", "https://openalex.org/I4210117038", "https://openalex.org/I4210140103", "https://openalex.org/I2799903593", "https://openalex.org/I4210140103", "https://openalex.org/I83809506", "https://openalex.org/I2799903593", "https://openalex.org/I4210104056", 
-"https://openalex.org/I4210140103", "https://openalex.org/I145608581", "https://openalex.org/I4210157065"), institution_display_name = c("University of Miami", "Sylvester Comprehensive Cancer Center", "Sylvester Comprehensive Cancer Center", "Caris Life Sciences (United States)", "Caris Life Sciences (United States)", "Caris Life Sciences (United States)", "HonorHealth", "USC Norris Comprehensive Cancer Center", "Caris Life Sciences (United States)", "Georgetown University Medical Center", "Caris Life Sciences (United States)", 
-"University of South Alabama", "Georgetown University Medical Center", "Saint John's Health Center", "Caris Life Sciences (United States)", "University of Miami", "Sylvester Comprehensive Cancer Center"), institution_ror = c("https://ror.org/02dgjyy92", "https://ror.org/0552r4b12", "https://ror.org/0552r4b12", "https://ror.org/04wh5hg83", "https://ror.org/04wh5hg83", "https://ror.org/04wh5hg83", "https://ror.org/03szbwj17", "https://ror.org/01nmyfr60", "https://ror.org/04wh5hg83", "https://ror.org/00hjz7x27", 
-"https://ror.org/04wh5hg83", "https://ror.org/01s7b5y08", "https://ror.org/00hjz7x27", "https://ror.org/01gcc9p15", "https://ror.org/04wh5hg83", "https://ror.org/02dgjyy92", "https://ror.org/0552r4b12"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "healthcare", "healthcare", "company", "company", "company", "healthcare", "healthcare", "company", "healthcare", "company", "education", 
-"healthcare", "healthcare", "company", "education", "healthcare"), institution_lineage = c("https://openalex.org/I145608581", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210101935, https://openalex.org/I4210157065", "https://openalex.org/I4210140103", "https://openalex.org/I4210140103", "https://openalex.org/I4210140103", "https://openalex.org/I4210130412", "https://openalex.org/I2800154431, https://openalex.org/I4210117038", "https://openalex.org/I4210140103", 
-"https://openalex.org/I2799903593", "https://openalex.org/I4210140103", "https://openalex.org/I83809506", "https://openalex.org/I2799903593", "https://openalex.org/I4210104056, https://openalex.org/I94396219", "https://openalex.org/I4210140103", "https://openalex.org/I145608581", "https://openalex.org/I4210101935, https://openalex.org/I4210157065"))</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Abstract Background: Activation in RAS pathway has been associated with cancer development. Three RAS family members, including NRAS, KRAS and HRAS are frequently mutated across various cancer types, where NRAS mutations are present in 15-20% of melanomas. NRAS-mutant melanomas (NRASm) have been extensively characterized. However, molecular and clinical implications of HRAS mutations (HRASm) in melanoma are less well understood. Methods: A total of 6329 melanoma samples were subjected to comprehensive molecular profiling at Caris Life Sciences. Analyses included next generation sequencing of DNA (592 Gene Panel, NextSeq; whole exome sequencing, NovaSEQ), RNA (NovaSeq, whole transcriptome sequencing, WTS) and IHC. MPAS scores to evaluate MAPK pathway activation, IFN scores, QuantiSeq, neoantigen load (high, intermediate, low binding affinity: HBA, IBA and LBA) and GSEA were calculated from mRNA expression data. Wilcoxon, Fisher’s exact were used to determined statistical significance (p value without and q value with multi comparison correction; FDR for GSEA). The reference cohort was the entire melanoma cohort (MC). Results: HRASm were identified in 69 (1.09%) of melanoma samples (hotspots mutations: G13, 40%; Q61, 34%; G12, 18% and others, 9%). HRASm and NRASm had different genomic landscapes: HRASm were significantly associated with a higher mutation rate of NF1 (43.2% vs 27.7%, p&amp;amp;lt;.05), ARID1A (17.2% vs 6.3%, p&amp;amp;lt;.05), B2M (14.3% vs 2.4%, p&amp;amp;lt;.05), RAF1 (12.2% vs 1.4, p&amp;amp;lt;.0001), CTNNB1 (9.1% vs 3.3%, p&amp;amp;lt;.05) and higher amplifications of EMSY (11.8% vs 1.8%, p&amp;amp;lt;.01), MRE11 (4.3% vs 0.5%, p&amp;amp;lt;.05), whereas NRASm harbored less NF1 (14.8% vs 27.7%, q&amp;amp;lt;.0001 ), BRAF (6.9% vs 39.9%, p &amp;amp;lt;.0001), PTEN (3.9% vs 6.9%, q &amp;amp;lt;.05), KIT (0.8% vs 4.4%, q &amp;amp;lt;.0001) mutations and less amplification PDGFR (0.4% vs 1.3%, p&amp;amp;lt;.05), BRAF (0.2% vs 1.4%, p&amp;amp;lt;.05), KIT (0.2% vs 2.1%, q&amp;amp;lt;.05) when comparing to MC. Both HRASm and NRASm had higher MPAS scores than MC (HRASm, 0.24; NRASm, 0.11; MC, -0.41, q&amp;amp;lt;.001). In addition, HRASm showed higher TMB (HRASm, 68.1%; NRASm, 56.9%; MC, 50.0%, q&amp;amp;lt;.05), relatively higher IFN scores (HRASm, 0.16; NRASm, -0.23; MC, -0.24, q = .16) and higher neoantigen load (HBA: HRASm, 10.5; NRASm, 4; MC, 4, p &amp;amp;lt; .05; IBA: HRASm, 17.5; NRASm, 8 MC, 7, p &amp;amp;lt; .05; LBA: HRASm, 37.5; NRASm, 21; MC, 19, p =.1) when compared to NRASm and MC. Lastly, suppression of angiogenesis pathway was observed in both HRASm (NES = 1.7, FDR&amp;amp;lt;.05) and NRASm with respect to MC (NES = 1.4, FDR&amp;amp;lt;.25). Conclusions: The genomic landscape of HRASm are significantly different from that of NRASm, implying their distinct roles in tumorigenesis. HRASm also demonstrated higher MAPK activation, suggesting that they could potentially benefit from agents targeting on this pathway. In addition, HRASm displayed more immunogenic features, associated with down-regulation of angiogenesis pathway, revealing a potential higher susceptibility of HRASm to immunotherapy. Citation Format: Leonel F. Hernandez-Aya, Estelamari Rodriguez, Aparna Nallagangula, Jun Yin, Phillip Walker, Joanne Xiu, Justin Moser, Gino K. In, David Spetzler, Geoffery T. Gibney, Matthew Oberley, Thuy Phung, Michael Atkins, Dave S. Hoon, Wolfgang Michael Korn, Jose Lutzky, Gilberto Lopes. Molecular and immunologic characterization of HRAS mutations in a cohort of 6,329 patients with cutaneous melanoma [abstract]. In: Proceedings of the American Association for Cancer Research Annual Meeting 2022; 2022 Apr 8-13. Philadelphia (PA): AACR; Cancer Res 2022;82(12_Suppl):Abstract nr 5625.</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>Cancer Research</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cancer Research</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S168522863</t>
+          <t>https://doi.org/10.1158/1538-7445.am2022-5625</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0008-5472</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1158/1538-7445.am2022-5625</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5625</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>5625</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>12_Supplement</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4282982803</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4282982803", doi = "https://doi.org/10.1158/1538-7445.am2022-5625")</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1538-7445.am2022-5625</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3048477817", "https://openalex.org/W2044351212", "https://openalex.org/W4383532676", "https://openalex.org/W3131675807", "https://openalex.org/W4381328335", "https://openalex.org/W2266896604", "https://openalex.org/W1524676616", "https://openalex.org/W2315043173", "https://openalex.org/W2603968999", "https://openalex.org/W2029503777")</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Aparna Nallagangula_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Aparna Nallagangula_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL 33136, USA; Broward Health North, Pompano Beach, FL 33064, USA; University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL 33136, USA; University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL 33136, USA; Memorial Cancer Institute, Pembroke Pines, FL 33028, USA; University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL 33136, USA; Department of Medicine, Division of Solid Tumor Oncology, University Hospitals Seidman Cancer Center, Case Western Reserve University, Cleveland, OH 44106, USA; University of Miami Sylvester Comprehensive Cancer Center/Jackson Memorial Hospital, Miami, FL 33136, USA; College of Medicine, The University of Arizona, Tucson, AZ 85721, USA; School of Medicine, University of Miami, Miller Miami, FL 33136, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297152055</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Prevalence and Outcomes of COVID-19 among Hematology/Oncology Patients and Providers of a Community-Facing Health System during the B1.1.529 (“Omicron”) SARS-CoV-2 Variant Wave</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-09-23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cancers</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cancers14194629</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36230552</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/cancers14194629</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Oncology, University of Southern California, Norris Comprehensive Cancer Center, Los Angeles, California, USA gino.in@med.usc.edu.; Division of Medical Oncology, University of Miami, Sylvester Comprehensive Cancer Center, Miami, Florida, USA; Division of Hematology and Oncology, Northwestern University, Robert H Lurie Comprehensive Cancer Center, Chicago, Illinois, USA; Division of Oncology, University of Washington, Fred Hutchinson Cancer Research Center, Seattle, Washington, USA; Division of Hematology and Oncology, Georgetown University, Georgetown Lombardi Comprehensive Cancer Center, Washington, District of Columbia, USA; Department of Neurosurgery, The University of Texas MD Anderson Cancer Center, Houston, Texas, USA; Division of Hematology/Oncology, Scripps Clinic, Scripps MD Anderson Cancer Center, San Diego, California, USA; Division of Hematology &amp; Oncology, Medical University of South Carolina, Hollings Cancer Center, Charleston, South Carolina, USA; Section of Hematology/Oncology, Dartmouth University, Norris Cotton Cancer Center, Lebanon, New Hampshire, USA; Department of Ophthalmology, University of Southern California, Keck School of Medicine, Los Angeles, California, USA; Department of Radiation Oncology, University of Southern California, Norris Comprehensive Cancer Center, Los Angeles, California, USA; Section of Surgical Oncology, University of Southern California, Keck School of Medicine, Los Angeles, California, USA; Department of Dermatology, University of Southern California, Keck School of Medicine, Los Angeles, California, USA; Department of Dermatology, University of Southern California, Keck School of Medicine, Los Angeles, California, USA; Division of Oncology, University of Washington, Fred Hutchinson Cancer Research Center, Seattle, Washington, USA; Division of Hematology and Oncology, Northwestern University, Robert H Lurie Comprehensive Cancer Center, Chicago, Illinois, USA; Division of Medical Oncology, University of Miami, Sylvester Comprehensive Cancer Center, Miami, Florida, USA; Division of Hematology and Oncology, Georgetown University, Georgetown Lombardi Comprehensive Cancer Center, Washington, District of Columbia, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280493379</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Clinical activity of PD-1 inhibition in the treatment of locally advanced or metastatic basal cell carcinoma</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal for ImmunoTherapy of Cancer</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>BMJ</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/jitc-2022-004839</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35545318</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/jitc-2022-004839</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1University of Miami Miller School of Medicine, Miami, FL;; 2Sylvester Comprehensive Cancer Center at the University of Miami, Miami, FL;; 2Sylvester Comprehensive Cancer Center at the University of Miami, Miami, FL;; 3Caris Life Sciences, Tempe, AZ;; 3Caris Life Sciences, Tempe, AZ;; 3Caris Life Sciences, Tempe, AZ;; 4HonorHealth Research Institute, Scottsdale, AZ;; 5USC Keck School of Medicine, USC Norris Comprehensive Cancer Center, Los Angeles, CA;; 3Caris Life Sciences, Tempe, AZ;; 6Medstar/Georgetown University Medical Center, Washington, DC;; 7Caris Life Sciences, Phoenix, AZ;; 8University of South Alabama, Mobile, AL;; 6Medstar/Georgetown University Medical Center, Washington, DC;; 9Saint John’s Cancer Institute, Santa Monica, CA.; 3Caris Life Sciences, Tempe, AZ;; 1University of Miami Miller School of Medicine, Miami, FL;; 2Sylvester Comprehensive Cancer Center at the University of Miami, Miami, FL;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282982803</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Abstract 5625: Molecular and immunologic characterization of &lt;i&gt;HRAS&lt;/i&gt; mutations in a cohort of 6,329 patients with cutaneous melanoma</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-06-15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Cancer Research</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.am2022-5625</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.am2022-5625</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
